--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2020/60_Muş_2020.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2020/60_Muş_2020.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E49AA78-D03F-4F0A-B6EB-49D31DB23FC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6F6D1541-5BC1-4130-832C-0A3DC19DF0C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="676" xr2:uid="{2778C37E-E30E-46E4-B734-298EE88C6075}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="676" xr2:uid="{715EBB5B-004E-453A-B342-C96EFAFADA5E}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="102" r:id="rId1"/>
@@ -982,13 +982,13 @@
   <cellStyles count="9">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{345C2174-62DA-4D1C-B5DD-A8C21E549767}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{41F50656-23E1-4281-8CC3-EC98C233120E}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{0F43078F-456E-4F14-8F0A-3117CAFA3098}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{86A2F2DC-6CE3-4DD5-9E9D-EB327185E5FE}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{0DE26C40-ED73-4DF6-94A9-95BE6C5B7CDE}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{979EC255-400C-4561-B802-08B36F7BA1FD}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{C9D1F324-BF11-49BA-B0FB-9B5CD9B01432}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{B27A9D0B-AD08-489C-BA18-5BDA533C2AFD}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{C8DAAFF4-8B83-4765-814D-077FFA2EAA09}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{C59D18DB-E0B5-4681-B0FF-D5C5600856CA}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{6150818E-AA3B-486F-8445-20ADBE7F4580}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{5500E1E2-4681-473F-9167-B31977494BF2}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{11536952-D24A-43F9-90B5-D849A3A190B8}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{FA79462A-5C3B-44D5-B1CE-1BB6D58CE49C}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1358,7 +1358,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{791E22CF-BC77-48F7-9D67-C34D9213E90D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D70DD5AB-01E7-44D7-A89D-0AB721E3730A}">
   <dimension ref="A2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2572,18 +2572,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B187A73B-A263-498B-B803-58702E57B0A8}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{FD275D36-6612-4D95-9D01-C10B43E51546}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{851C6757-0673-479C-BE70-94FA3CFAF534}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{AD8B1BED-AA54-40B3-82E0-29B43E3099D9}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{6A00849E-4CE3-4C26-9FA2-0876B2601CDE}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{21898CBF-75DA-4640-983D-2518D948EE7A}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0559EB75-005C-4BC6-AE5D-9FDA12D0BACD}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B9094C19-7C9F-4CD9-AA1C-A2985B0CB22D}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{FFDC15CB-2B30-4A1F-8232-1BE5B4D89E6D}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{0FB54D1F-7CE9-4ACF-BA3D-F8C2C15D75AA}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{085C1F5E-129C-4CE6-81B7-F95ADEE0B107}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{57ABD3CA-191C-4D93-9902-3D97C14C7DAD}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2BBBECB2-1011-4562-9F17-E486CD5EFCBF}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{273E1872-8874-4308-B215-E51DA18C1524}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{6A4E2860-74A6-4EA5-84F6-1DB57853A3B3}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{A0828193-DE04-4AB7-9087-1CED6F2CC842}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{37475472-BE29-4DE5-B278-8A15F52A26BF}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{2A957D56-9EAC-4BE6-A792-240E0057C875}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2A0238DC-975C-470E-93AE-A5D0FE934553}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6B372501-F720-45CB-9C8A-2206B5B3CFB6}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{822F90C9-B412-4490-B681-F78872313606}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{C0F2A610-F1C9-4847-91FA-36C8AF881154}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{68F9CAF4-BC8E-4C5A-A466-38CEF996458C}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{CE518CF8-5318-4FED-95A7-C29D5120C657}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2596,7 +2596,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE5E831E-A14F-40DC-8FB1-4849A0B5AB81}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC13DE2F-6E01-4052-8CC0-6F3F222A9005}">
   <sheetPr codeName="Sayfa6"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -3798,18 +3798,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C05C867B-DA69-4E09-A291-7A71D6B59EB8}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{40D32135-789A-4C2B-9B4F-092C9D611E84}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{80270C8F-156F-4400-B8DF-F1087EA2B01A}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{4CD06569-4A4D-40F8-88E1-9740A6B47326}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{9A309F82-82C8-4A9C-932F-BA5FB06E2ED6}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{7BFBABC7-328F-40B4-83F1-062FDAA06932}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{937E8266-6D73-4006-B5E9-A84EA73EB04C}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E9878609-C15E-424A-940B-F09C213C1C65}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{2825AD74-AF76-4A11-8F0A-4CB5DE045451}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{1C3F49B0-E30F-4835-9AAD-E533568ED00F}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{132C3045-4AD8-4EA6-BAE2-807547D318C1}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{53C3EB02-0391-454B-AE86-127FDCF500BD}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C15C2932-3A6B-45FC-B03D-DEF60D942647}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C2A74CBA-5016-4B93-BE6F-1C1601803A62}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{F7814AE9-7A41-4E86-BC51-BFFDC544180B}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{099C42E1-3994-48A1-A021-F0D277563FC0}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{1AA544A0-1257-4AED-92FB-7A9A5F97906F}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{2494D89D-8248-4392-8B5D-F46A21A63896}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{CA5B3D6B-3735-4DF8-9569-472C5DAFC045}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{821B4576-0453-4E8A-B41F-7AEDCB611705}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{58A79EA4-9A2B-4585-9D24-111789F68A6E}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{05039367-C1F2-4B59-B77B-516DB94FC79A}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B78A8C19-2925-47FA-883A-A3DF6E3AAEA1}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{18A8B324-6200-4E25-AE75-F1C9BC0AAF54}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3822,7 +3822,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43FD320E-CF46-4EDE-A9D0-F349F30B66EC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A9D71C0-ACBB-4766-B59A-D3E95E292A70}">
   <sheetPr codeName="Sayfa7"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -5018,18 +5018,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8626176A-3394-45A1-8232-643A407617D9}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0FBAD7B5-D5C1-4DEE-9913-8025C8F48A9F}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{10BF2D13-6738-4FB0-BB40-94A44316ECBD}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{52BF7A06-961B-43E6-B113-D9CE22EB4C1D}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{41E9AFBC-E81F-401A-89B5-355A7AE64DFB}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{78C29BE2-F15C-4042-BC69-CB7A71A1D547}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C8DC1C8B-62B2-4F2B-A3AB-01B5DAD100D8}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{DB5293D8-B7FC-4875-A6CC-7E3349C13CE0}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{4EDD0151-7D94-4335-8B1B-A92242FCE67B}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{A1CBCF8B-A015-4E99-BE82-672771386979}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{12C5A9C0-76E6-4000-B450-2ECBEE8883AC}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{FFA24F17-7CB8-4D54-9F1D-2D9BCE658553}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B225A557-4367-4FE1-BCF3-094C357F67C5}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D6BEA702-0F19-488C-B9DA-3444BB8F9315}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{A8947844-878B-42E0-90C6-B1D22869831D}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{1A6105CF-3E3E-433D-AB56-6B30D626E29E}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{BEFE02A2-45C4-4898-B6D2-05D965F40CD2}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{2820BA6C-3EAF-4E8C-ADBB-B718475F7E71}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8264C134-72BA-475A-8EE1-4F2BBAC810F6}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{63BF8495-A107-421A-918F-D0DB78F68E52}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{7FE033A3-DA29-413C-9398-8DBD907CB155}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{3188651E-B4E1-4EBC-A463-749E98481D12}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6D03A4C3-12E5-487C-900F-B7213A9B3884}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B05B290E-3873-4AF3-A782-D47287198360}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5042,7 +5042,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70B1611A-BC38-4A33-8E06-50BBABBDF2EF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8A54CDE-4314-46FE-9684-C52769443069}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -6224,18 +6224,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{51964466-82F3-453A-96C7-759DEB41D193}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{347DADC1-AF78-487A-9875-332CBC230125}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{9851C231-E5C9-4622-A594-E78E03251B47}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{969488B9-00C5-4B2A-9E90-3AD5BF3C45C1}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{A5891261-42C0-49C8-A657-5F4DE67B8BA5}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{3B7A908C-9414-4A31-B34E-1569781F3922}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F090926A-67C5-494A-8A6D-3D1217553CF1}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2E98F996-E1DA-410D-AD8B-DA86C1D2BD67}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E8CADA57-93BA-4AED-931F-482CBBB86816}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{0001B462-CA0E-4F62-839A-983702FD21E4}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{DE2CC3F7-64C5-4F9F-A1F5-B9897F2DBB4F}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{0A7B0A05-D694-4CD6-AB00-74D024F0E7B5}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1165A331-01E8-42C4-9364-105C0FB4B292}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1C5E3DC8-A8E8-4661-BA7A-84E22E277523}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{BCC76E76-4331-4679-A69D-84725238D64F}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{FFF778EB-5789-4B51-84F8-8BF0D5D3CCE1}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{527C56F8-C2F8-4191-AA50-971706E07375}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{798ECBC8-CEE6-4495-901D-AAE02B43006C}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{69566537-2F5D-413D-A85D-2A4853416CD2}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{231BF012-1298-4D8A-B7FD-6D764181F30F}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{56F0A9D2-9B22-45D9-918C-785679F01473}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{0D39E3A2-EAF2-47B2-A54F-2AC1A1F21DEC}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{02E74151-686C-421F-A487-37333D482381}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{4AE46C40-B114-40FB-A3D6-B79D203F21D1}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6248,7 +6248,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8D4F4A0-174B-480B-A742-F82006A2B7C2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C931ABDE-55B5-45E1-9EDF-9299B0C1E80F}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7459,18 +7459,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{708EA519-C704-4BFB-963A-1C9189597A61}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C96C61AB-541F-49FB-92E6-4B0A8A19FC20}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{010D7DB7-78B0-4A4A-BDEF-88B775DDFB45}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{5AAABB8A-DE5F-491A-B455-F3A14D4E9BC9}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{49709307-C3F7-4C34-992C-46BC37027D35}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{A95C1228-01A6-4529-9D3F-6FA7106F3E77}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{CAA599FE-48F6-4CF1-A82D-36FFF7090F79}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{065CB05E-69A7-4B93-B600-BA11BDE34445}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{741506D1-0186-461A-9A73-476B67510495}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{9F99F971-8494-4CD3-88C9-3499527F9955}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{72993656-03C4-4095-A3B5-9F47B53BD7DA}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{3030ACEA-4C10-4E85-8226-22C090FA65AA}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9F083FD7-47D0-481B-A9ED-2E2C4C91B9C5}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D2DA3A47-0EAD-4520-8D57-56A3CC0270E4}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{2C612551-A74E-43A4-A1EC-F9B5C0E48CAF}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{3081D78D-FD93-4928-A311-6EAE5765310D}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{EA1ADC42-5428-4439-AF03-8FA1F0623F7B}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{0FBFE70F-281F-4715-A4C0-60D14EACE5C3}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{836C6E4C-3214-4B0E-991D-AF46BB8CF758}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E7A0CCE6-3459-45E1-BE01-6C72FAC5A9D4}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{54A9553B-5498-4600-9979-9E524207B1F3}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{2515A3AC-5563-4664-9C2F-9626B5D959CC}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9C6B834D-D232-43F9-B2CE-11DE73831D19}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{6C6E8B6E-C810-4106-884F-48EF1C009491}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7483,7 +7483,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73B50408-859E-4B41-BBE7-EA32A0B29EDE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3F1FCBD-64E6-4969-81E4-65D03D8C1366}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -8694,18 +8694,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{FD6ACFEB-B5A6-45AA-A15F-DA569EA78601}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0A6B8A1E-C63B-4639-B20D-22F2A094D4C4}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{BE081817-78A0-4D4F-98AE-E9AD72F14366}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{69872A0A-5A39-4A40-AB79-529D380CFD62}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{91E7695E-86D4-410B-8DE3-49D97A0C73BF}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{032E993A-2E71-436A-9E9F-EA5D2A09095C}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{41478913-1B01-4665-AD45-EE5885E07DE9}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B54EEC2D-5F34-4ACE-BDB1-595EB98062DB}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F32C7C3A-3F6C-4757-8EDE-5155814A1986}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{4625F39A-409B-466A-BC83-8D369D635D70}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9EF56ED9-ED68-4D5B-A56E-DBFC05601853}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{AD0355E5-77F3-4E4E-8FA7-D832E40AF7CF}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{79F2FEA6-68F9-4DA9-8B79-C00125C5F2A3}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B4DD649F-C8E7-4620-AC49-A13A070A8A06}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{82CDEEA1-7F20-4879-A2A6-7583BB0294E1}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{ADA0CB57-7D98-4410-A845-3B84AC84662B}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{32F77C4F-D40D-4647-8ECB-C5785BF2BDD1}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{90AB2562-F501-4B7B-804A-BB906A1212E5}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6F9C63FC-F0F7-4241-939D-7C39AB3610B2}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F578F301-D139-479A-A056-EB38C3B544B1}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{9F58B83E-6781-4998-9409-52E42DFB94F9}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{AC973867-226D-4162-BDE1-804FE69D0932}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{AE1BD6FC-CE8D-4D38-BD84-3661BC02FC44}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C5E504D5-1947-48FD-A78B-E505368BEC3A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8718,7 +8718,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{840EA4E9-CE74-4231-8FCE-CAC2131FF42E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D1254CA-DC2E-42E2-8304-4B52D0AADDE2}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9929,18 +9929,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{EFB4FB09-FBF3-4496-979D-C2234F4A9298}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0584CBDF-6CF4-44E3-8DA6-F177AB36DB53}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{E992558F-9A29-4F59-9B51-A8887DD4DE31}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{D7A596BC-36E8-48CF-B23A-6FABBF0D598D}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{BEBEFF50-C3FC-4774-9D22-F17C853DD90A}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C23A0C50-AA40-46CF-9339-75272B5EFD03}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{DD1EDD4E-FF99-4CE8-B229-12442161D238}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{014FC2DE-7F0D-4262-AE38-4BE34BB58940}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{4D7C7EB1-D7DC-4562-9834-CFE42D79C8FF}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{5BE46D08-ABA4-48F3-8554-6CB864142C9E}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{327EE5B2-1291-451E-AA60-519C26A5A769}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{7C700ABA-2A7E-483B-AC1D-6E5EF7D408C4}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5E3C8A66-30FE-481A-80B4-5239A8F025AA}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C30A79F8-4BDA-4CA6-9DC0-99CDCC26104F}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{C0329812-C4B1-4AE0-B61A-F5F23707483F}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{2344600A-2722-43B6-8892-AB6247B5ACC7}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{1F9C5D4B-D6F3-4E33-86C2-7B4A52876D71}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{10492AAA-D653-4CD7-A02C-7DA3459693EB}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{20F3637A-3649-4962-A060-1C45BE20B59B}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F6775414-4323-4A84-AC13-2C620B3C4CCF}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{93EC34E5-165F-4A9F-841E-FE9BE4495F35}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{26C92F49-1AE8-4540-90A6-92C31E3A9C88}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{BF8FDD95-02D6-4FFF-BA26-A8C6C4BAA95A}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{1496DF06-DCA6-41CB-8A71-9EB3F278CBF9}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9953,7 +9953,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73BA9699-302F-462A-9715-35DF1567C95F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D26DD0C8-F00D-4FF2-820F-270F927E4911}">
   <sheetPr codeName="Sayfa8"/>
   <dimension ref="B2:F102"/>
   <sheetViews>
@@ -11165,18 +11165,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B6248738-CA77-4160-90B1-E9079F3A140E}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C1A01059-7D94-402A-944E-FFE8C0E93775}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{34DB6D35-3586-4D6C-BE06-DDEBD3751777}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{232F9D00-E051-476C-8BEF-489FC17FB6DC}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{58A00A9F-C029-417B-B4F0-AC488A2519F7}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{BE16B529-4F0F-445C-83F6-C36369C6DCA8}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3DF919EC-FD78-4337-A59E-BC04D3743E55}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{DD1C0DE4-3D1E-49F4-A6CF-2523E77CF4EF}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{BED68EAC-09D3-4FEA-8430-364CBC9D55D2}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{ABD8CDF5-32D3-4F41-AEAB-9A87D7D69EB6}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{43061555-9333-4DE5-97B9-EDC09465BB4F}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{42BBFB53-9AF4-4726-9F58-CC43653F9A6B}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{AE9AC892-1E65-405E-ADBD-6FB47EF4A1F8}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{4B8D8418-A462-48D7-B13C-B8DC9D949E8C}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{8DCC7C89-92A3-4695-8669-FF222AB540FA}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{3B3D7AB5-3B49-420A-A1E2-4AC356897A9A}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{C0F0895E-14C9-4DAD-8189-7D9D8E009457}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{8970C54B-C028-4028-9D85-C9735555C8E9}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{14579439-3853-4E94-960A-0BE27BD1AD05}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A2978B9A-C6C2-4535-9B18-8D29A1566F31}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{72F6CD49-4418-4121-9AF7-37D91AC14B92}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{4DD230F6-4EF8-41DE-8039-74B29EC3EB2E}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{51DA7B3D-0FCD-4B6D-86BC-CCED662DB17E}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{375711CD-3D9A-44BE-B3A8-55DF7ED561C3}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11189,7 +11189,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15823737-3FDB-4FDD-A680-404F1775506D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117FCD08-2FA7-47C6-9E62-91F60787C496}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F102"/>
   <sheetViews>
@@ -12401,18 +12401,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{836E5701-AA07-439F-A585-FBF429ED8BE2}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0B9D4E10-B06B-48CD-84B1-D5F550594E6C}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{51147D6E-7F28-45E9-8194-5227617F0366}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{6E032063-7EFC-4A51-909B-E16B4DD9D602}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{76389997-7754-46CB-ADE1-49212F9372FF}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{8302FCB5-CA75-4583-B755-C24F87B0F325}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2890C9DB-C3D6-4575-A5CF-695EB375F552}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D21D065B-87E5-45CC-8942-DBC6B34D424E}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{075737C6-A595-438B-895D-706B28CFEA8C}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{96F32E6D-8316-4D85-9564-61E008BA190E}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{24765A8B-3230-46BC-B2C5-55F6A74A48BD}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B8A75F83-E627-4DAB-9D9E-10DC88CC24A8}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{525A6D0F-0C5E-4F76-9049-2EB88D140DFE}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9BE35628-94E6-442C-8835-E0A144C7A180}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{07C7AFAC-5E92-4194-81A9-876CA783AE28}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{2B904432-91D0-4AEE-AEEF-6D0B4FCE1700}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{566E027F-ABED-41D4-9030-3ACCEAFE7834}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{A39377AD-1713-459B-8B30-A48554F4CE51}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0CE9A6C0-EA91-49DF-93F9-2996D33627B2}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{26BE9D7F-AF1C-4794-8793-D34A9B7FD2B3}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{73AE7DA8-3D2A-4137-A69C-0CB7FA820705}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{D8B9F27B-FA21-42EC-8665-FA90E83EE6AA}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F019F4FF-5DEF-4CE5-8A41-4A5C241CD298}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{2819FDA9-3469-49B8-886E-BFD9785F4D3A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12425,7 +12425,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77A6EE9B-49AE-45B8-8B7D-839B27E87AA1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8583AC66-7EE8-4AD6-9DBF-60952748A546}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F102"/>
   <sheetViews>
@@ -13637,18 +13637,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C12D5306-041E-46BB-8D55-3042FFA47543}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{4E9D9482-BC86-479C-A373-3D711A2C84F4}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{A0E47768-2117-4B57-BBF7-9640247ED718}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{DC3AA726-ADCD-4BCC-AA8D-86A9BEB95A09}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{00B049F2-EB0F-436A-901C-40E2285D3982}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C8298C6F-E7AD-4C34-BA3B-A4FF01494CCA}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{793E1C0C-26AC-4E73-BE6C-D43B1E37B7EF}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4B774A32-E27F-4B4E-9E33-08805DD8A985}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{04E26D27-E971-45E2-A564-F0D75FF8CC65}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E86EC4F5-111B-4FA4-A4A9-72CFEFDF1658}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{CC38FF4D-0136-4936-BAC4-64852C2A1655}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E4B43A39-84AC-49D0-B2E9-2BEF0CEDB623}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E280AF33-7EB4-4FE6-B0D0-D7262D031E49}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{FB09D9E1-8F67-490F-96AB-32926104DD6E}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{560F6E87-AB97-488F-A31B-D159F186AC28}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{BF645563-42BF-43D2-87EA-12198A00C9A9}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{D4FC1835-6EA7-44F9-A724-B8BB7DA7FEF7}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{2C9F0963-0949-43EC-9766-FDF723204824}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{69609027-9CE8-422E-B53B-6D95761F05CF}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9DA8EC59-A7EC-48A0-9C08-64C8A2FBD921}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E865664C-DF2B-473E-93DA-44C78EE58F71}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{460A09EB-BF07-461A-B61F-22DFC0AF665A}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{791947B6-33C0-484C-8CB9-31590CA9BBAE}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{7DD27499-637A-4E84-AB09-3E1A1F50763A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13661,7 +13661,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1135FCD-04E5-41AA-8A00-D6D5BEA42C9F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76C6F4E4-CDD6-4643-8CBC-844263AB12AF}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="B2:F102"/>
   <sheetViews>
@@ -14873,18 +14873,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F649924A-7287-46B2-9258-14F46BA95CCF}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9115B8E4-80B3-4F9D-AC89-D3F791D15062}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{F04DEDFD-31B3-42C3-9C78-2AC62C9643BA}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{AA5E4653-18CD-4780-B2BA-EDB0968BAAD1}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{C4B76102-6B9F-4451-B146-DB30CC207265}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{26A6431D-CFE8-4282-9B60-6737F1FF2471}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{BCA56CCE-CC69-430A-8820-9E3AC570557B}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{20607264-AE96-486C-BA7F-86A6AB2539FA}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{2FF9ABAD-9028-4D6B-B81F-B419984F0CEC}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{419C9659-B5DA-4BBD-B4C1-1D4266DD999C}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2C2AF944-64C9-4629-83EB-88B3DD5D06D2}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{149DB3B0-98E0-4E7D-97AA-F64E9E75EF36}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C5371534-2A78-4BE5-8C83-0AE801F34D10}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D70763BF-BB02-4197-A71F-F1B6CF2D59CA}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{EE5F491F-531C-4DEE-A217-185576C3D2DC}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{44B86BA0-01CF-4793-8794-DAD70FBCB3CE}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{C5A36268-6021-4151-B7D3-A74E2FA30AD1}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{5C4B79F6-027F-42AD-BE9A-FE408CA1EFFE}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3A38D9A3-BB6C-4F7F-BAED-C84CEBF88821}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2D811FFC-6712-479F-8348-06F3F72E3018}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{09F30EBA-2DA4-47A2-8688-1CE3A051A942}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{019EF48F-D58E-46A8-956E-ED89530D11CF}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1065D6F7-6E2F-4DF7-AF54-6F0729AF0675}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B357BD3F-9A3A-44CE-A04D-D255E765CAC2}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14897,7 +14897,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60D612F4-4FBB-4CE3-9F56-D958B609FF08}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A2D4559-D32C-4212-A57C-30D49B26E588}">
   <sheetPr codeName="Sayfa5"/>
   <dimension ref="B2:F102"/>
   <sheetViews>
@@ -16109,18 +16109,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9C48EBDC-7DEB-475E-90C8-8FC27BB6EA48}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{29A74FDA-86A4-4CEC-84F0-8FFDC59568D5}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{3C61A4AB-259E-4C0C-BA1D-75FE4DA459C0}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{7C577452-A151-432F-B5D6-4E4A5E10DD9F}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{6271CA17-A098-4CCF-BA7C-4587C4FEF3F8}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{9CBD5066-E5E3-4D07-8A2A-7B1464D33164}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{CCC0F1D1-2574-4C06-8731-2AE544D23796}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{BCBFEC6A-38AC-410A-AD88-6474FEA9187D}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A4C77C65-BAD7-4EF6-B2F8-3EB45C77698F}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{2C3B5A60-E971-4EA8-834C-CC845A07BB4A}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{84D0FC6D-7576-4626-82CD-84A8EF831C6C}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{37EC19ED-9A7A-4479-B309-D31CE016D74D}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{DF20CBFE-58DF-4BC5-A10D-932137AA4BB3}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{14F0E810-1BAD-4C5F-8373-47089CBF9194}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{DC3C6C1F-0C6F-4826-B514-3DB198E2BFA2}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{52C05D20-FBF0-4A68-A6B3-588C26FB48B8}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{C742B623-74E1-4A5A-8AED-3822F7CF6CE2}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{BB23090C-BC72-40C9-A5E5-E6CA1A2C16E0}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2A8AD734-1476-47DC-84E3-4F3CC1C735DF}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{035FB836-6EF1-4F28-A773-4B7BB88AE8DA}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{4AB6262D-64C5-4F52-A72E-AD9D1F31BA06}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{08747C60-0171-42CB-8E03-56CD1F4EA5E8}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1E7D24E5-1BB3-4DDF-B1C7-2B62ACA8E8DF}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{249E3ACE-23A9-4945-B71C-72A00FE00092}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
